--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Serie</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3527,7 +3530,7 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>102.62</v>
+        <v>102.63</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3639,7 +3642,7 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>103.11</v>
+        <v>102.99</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3647,7 +3650,7 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>105.61</v>
+        <v>105.44</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3679,7 +3682,7 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>107.35</v>
+        <v>107.46</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3815,7 +3818,7 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>106</v>
+        <v>105.98</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3824,6 +3827,14 @@
       </c>
       <c r="B259">
         <v>106.05</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260">
+        <v>112.64</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Serie</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3102,7 +3105,7 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>95.45999999999999</v>
+        <v>95.45</v>
       </c>
       <c r="C182">
         <v>111.27</v>
@@ -3146,7 +3149,7 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>99.06999999999999</v>
+        <v>99.08</v>
       </c>
       <c r="C186">
         <v>108.11</v>
@@ -3157,7 +3160,7 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>98.69</v>
+        <v>98.7</v>
       </c>
       <c r="C187">
         <v>109.04</v>
@@ -3168,7 +3171,7 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>99.12</v>
+        <v>99.14</v>
       </c>
       <c r="C188">
         <v>109.87</v>
@@ -3530,7 +3533,7 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>102.63</v>
+        <v>102.62</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3642,7 +3645,7 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>102.99</v>
+        <v>103.11</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3650,7 +3653,7 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>105.44</v>
+        <v>105.61</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3666,7 +3669,7 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>96.72</v>
+        <v>96.73</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3674,7 +3677,7 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>106.57</v>
+        <v>106.59</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3682,7 +3685,7 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>107.46</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3722,7 +3725,7 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>95.70999999999999</v>
+        <v>95.73</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3834,7 +3837,15 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>112.64</v>
+        <v>112.63</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261">
+        <v>116.32</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Serie</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3105,7 +3108,7 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>95.45</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="C182">
         <v>111.27</v>
@@ -3149,7 +3152,7 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>99.08</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="C186">
         <v>108.11</v>
@@ -3160,7 +3163,7 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>98.7</v>
+        <v>98.69</v>
       </c>
       <c r="C187">
         <v>109.04</v>
@@ -3171,7 +3174,7 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>99.14</v>
+        <v>99.12</v>
       </c>
       <c r="C188">
         <v>109.87</v>
@@ -3525,7 +3528,7 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>97.55</v>
+        <v>97.54000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3637,7 +3640,7 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>97.36</v>
+        <v>97.37</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3669,7 +3672,7 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>96.73</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3677,7 +3680,7 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>106.59</v>
+        <v>106.57</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3685,7 +3688,7 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>107.4</v>
+        <v>107.31</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3725,7 +3728,7 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>95.73</v>
+        <v>95.70999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3821,7 +3824,7 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>105.98</v>
+        <v>105.99</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3837,7 +3840,7 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>112.63</v>
+        <v>112.68</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3845,7 +3848,15 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>116.32</v>
+        <v>116.33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262">
+        <v>102.39</v>
       </c>
     </row>
   </sheetData>
